--- a/2017-07-12/UAdeC-FIME-9A-and-8A/ExamenPractica/db/questions.xlsx
+++ b/2017-07-12/UAdeC-FIME-9A-and-8A/ExamenPractica/db/questions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>No</t>
   </si>
@@ -235,27 +235,6 @@
   </si>
   <si>
     <t>Gibram Alfonso Hernandez Martinez</t>
-  </si>
-  <si>
-    <t>Leonardo Daniel Parra Valenciano</t>
-  </si>
-  <si>
-    <t>Félix González Flores</t>
-  </si>
-  <si>
-    <t>Alejandro Martínez Armendáriz</t>
-  </si>
-  <si>
-    <t>Salvador torres marin</t>
-  </si>
-  <si>
-    <t>Alfredo Alan Pineda carreon</t>
-  </si>
-  <si>
-    <t>Jonathan Martínez vega</t>
-  </si>
-  <si>
-    <t>8A</t>
   </si>
 </sst>
 </file>
@@ -1063,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC23"/>
+  <dimension ref="A1:BC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D2:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B18" sqref="A18:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,8 +1248,8 @@
         <v>55</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D23" ca="1" si="0">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <f t="shared" ref="D3:D17" ca="1" si="0">RANDBETWEEN(1,3)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
@@ -1285,7 +1264,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
@@ -1300,7 +1279,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
@@ -1315,7 +1294,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
@@ -1360,7 +1339,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
@@ -1375,7 +1354,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
@@ -1390,7 +1369,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
@@ -1405,7 +1384,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
@@ -1420,7 +1399,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
@@ -1435,7 +1414,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
@@ -1465,7 +1444,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1480,97 +1459,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>12734903</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>13299709</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="0"/>
         <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>13301674</v>
-      </c>
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>13153240</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>11143253</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>11655636</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
